--- a/data/FHM/Folkhalsomyndigheten_Covid19_2020-04-25.xlsx
+++ b/data/FHM/Folkhalsomyndigheten_Covid19_2020-04-25.xlsx
@@ -521,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6442,8 +6442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6821,7 +6821,7 @@
         <v>43946</v>
       </c>
       <c r="B47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6834,7 +6834,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
